--- a/src/com/eprint/testData/Settings/EprintMIS/PlantsAndPresses/DigitalPress/SpeedWeight Lookup.xlsx
+++ b/src/com/eprint/testData/Settings/EprintMIS/PlantsAndPresses/DigitalPress/SpeedWeight Lookup.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="82">
   <si>
     <t>Data For Digital Press Add / Edit (update)</t>
   </si>
@@ -259,6 +259,9 @@
   </si>
   <si>
     <t>A1</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -884,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -968,7 +971,7 @@
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="13" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>

--- a/src/com/eprint/testData/Settings/EprintMIS/PlantsAndPresses/DigitalPress/SpeedWeight Lookup.xlsx
+++ b/src/com/eprint/testData/Settings/EprintMIS/PlantsAndPresses/DigitalPress/SpeedWeight Lookup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="9495" windowHeight="5385"/>
+    <workbookView xWindow="10155" yWindow="90" windowWidth="9360" windowHeight="6975"/>
   </bookViews>
   <sheets>
     <sheet name="SpeedWeight Lookup" sheetId="1" r:id="rId1"/>
@@ -54,9 +54,6 @@
     <t>Height</t>
   </si>
   <si>
-    <t>320.00</t>
-  </si>
-  <si>
     <t>640.00</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t>Maximum Sheet Weight</t>
   </si>
   <si>
-    <t>350.00</t>
-  </si>
-  <si>
     <t>800.00</t>
   </si>
   <si>
@@ -141,9 +135,6 @@
     <t>Default Guillotine</t>
   </si>
   <si>
-    <t>Guilotine</t>
-  </si>
-  <si>
     <t>Ideal</t>
   </si>
   <si>
@@ -258,17 +249,26 @@
     <t>36.14</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
     <t>NO</t>
+  </si>
+  <si>
+    <t>Guillotine</t>
+  </si>
+  <si>
+    <t>1189.00</t>
+  </si>
+  <si>
+    <t>841.00</t>
+  </si>
+  <si>
+    <t>A3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -362,6 +362,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -512,7 +519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -591,6 +598,7 @@
     <xf numFmtId="49" fontId="1" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -887,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -922,7 +930,7 @@
     </row>
     <row r="4" spans="1:12" ht="16.5" thickBot="1">
       <c r="A4" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -931,7 +939,7 @@
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -971,7 +979,7 @@
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="13" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
@@ -993,14 +1001,14 @@
         <v>11</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
@@ -1010,17 +1018,17 @@
     <row r="9" spans="1:12">
       <c r="A9" s="11"/>
       <c r="B9" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
@@ -1029,18 +1037,18 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="13" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
@@ -1049,20 +1057,20 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
@@ -1072,17 +1080,17 @@
     <row r="12" spans="1:12">
       <c r="A12" s="11"/>
       <c r="B12" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
@@ -1091,20 +1099,20 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
@@ -1114,17 +1122,17 @@
     <row r="14" spans="1:12">
       <c r="A14" s="11"/>
       <c r="B14" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
@@ -1133,18 +1141,18 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
@@ -1153,18 +1161,18 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
@@ -1175,14 +1183,14 @@
       <c r="A17" s="19"/>
       <c r="B17" s="20"/>
       <c r="C17" s="44" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D17" s="44"/>
       <c r="E17" s="44"/>
       <c r="F17" s="44"/>
       <c r="G17" s="44"/>
       <c r="H17" s="45" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I17" s="45"/>
       <c r="J17" s="45"/>
@@ -1191,18 +1199,18 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
@@ -1211,18 +1219,18 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
@@ -1231,18 +1239,18 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B20" s="12"/>
-      <c r="C20" s="13" t="s">
-        <v>41</v>
+      <c r="C20" s="46" t="s">
+        <v>78</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I20" s="16"/>
       <c r="J20" s="16"/>
@@ -1251,18 +1259,18 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
@@ -1271,18 +1279,18 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
       <c r="H22" s="15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
@@ -1291,18 +1299,18 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I23" s="16"/>
       <c r="J23" s="16"/>
@@ -1311,18 +1319,18 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
       <c r="H24" s="28" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
@@ -1331,73 +1339,73 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="29" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I25" s="16"/>
       <c r="J25" s="15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K25" s="16"/>
       <c r="L25" s="17"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="30" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I26" s="16"/>
       <c r="J26" s="15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K26" s="16"/>
       <c r="L26" s="17"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="31" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="32" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
       <c r="H27" s="40" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I27" s="40" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J27" s="40" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K27" s="40" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L27" s="17"/>
     </row>
@@ -1405,25 +1413,25 @@
       <c r="A28" s="34"/>
       <c r="B28" s="2"/>
       <c r="C28" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="35" t="s">
         <v>61</v>
-      </c>
-      <c r="D28" s="35" t="s">
-        <v>64</v>
       </c>
       <c r="E28" s="14"/>
       <c r="F28" s="41"/>
       <c r="G28" s="41"/>
       <c r="H28" s="15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L28" s="17"/>
     </row>
@@ -1431,25 +1439,25 @@
       <c r="A29" s="34"/>
       <c r="B29" s="2"/>
       <c r="C29" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="41"/>
       <c r="G29" s="41"/>
       <c r="H29" s="15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J29" s="15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L29" s="17"/>
     </row>
@@ -1457,25 +1465,25 @@
       <c r="A30" s="34"/>
       <c r="B30" s="2"/>
       <c r="C30" s="13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="41"/>
       <c r="G30" s="41"/>
       <c r="H30" s="15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J30" s="15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K30" s="15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L30" s="17"/>
     </row>
@@ -1495,29 +1503,29 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="37" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="32" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="41"/>
       <c r="G32" s="41"/>
       <c r="H32" s="40" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I32" s="40" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J32" s="40" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K32" s="40" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L32" s="17"/>
     </row>
@@ -1525,25 +1533,25 @@
       <c r="A33" s="37"/>
       <c r="B33" s="2"/>
       <c r="C33" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="35" t="s">
         <v>61</v>
-      </c>
-      <c r="D33" s="35" t="s">
-        <v>64</v>
       </c>
       <c r="E33" s="14"/>
       <c r="F33" s="41"/>
       <c r="G33" s="41"/>
       <c r="H33" s="15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J33" s="15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K33" s="15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L33" s="17"/>
     </row>
@@ -1551,25 +1559,25 @@
       <c r="A34" s="34"/>
       <c r="B34" s="2"/>
       <c r="C34" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E34" s="14"/>
       <c r="F34" s="41"/>
       <c r="G34" s="41"/>
       <c r="H34" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J34" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K34" s="15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L34" s="17"/>
     </row>
@@ -1577,25 +1585,25 @@
       <c r="A35" s="34"/>
       <c r="B35" s="2"/>
       <c r="C35" s="13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E35" s="14"/>
       <c r="F35" s="41"/>
       <c r="G35" s="41"/>
       <c r="H35" s="15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I35" s="15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J35" s="15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K35" s="15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L35" s="27"/>
     </row>

--- a/src/com/eprint/testData/Settings/EprintMIS/PlantsAndPresses/DigitalPress/SpeedWeight Lookup.xlsx
+++ b/src/com/eprint/testData/Settings/EprintMIS/PlantsAndPresses/DigitalPress/SpeedWeight Lookup.xlsx
@@ -252,9 +252,6 @@
     <t>NO</t>
   </si>
   <si>
-    <t>Guillotine</t>
-  </si>
-  <si>
     <t>1189.00</t>
   </si>
   <si>
@@ -262,6 +259,9 @@
   </si>
   <si>
     <t>A3</t>
+  </si>
+  <si>
+    <t>Guilotine</t>
   </si>
 </sst>
 </file>
@@ -586,6 +586,7 @@
     </xf>
     <xf numFmtId="49" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -598,7 +599,6 @@
     <xf numFmtId="49" fontId="1" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -895,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -913,20 +913,20 @@
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="43" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
     </row>
     <row r="4" spans="1:12" ht="16.5" thickBot="1">
       <c r="A4" s="3" t="s">
@@ -1001,7 +1001,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
@@ -1021,7 +1021,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
@@ -1182,20 +1182,20 @@
     <row r="17" spans="1:12">
       <c r="A17" s="19"/>
       <c r="B17" s="20"/>
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="45" t="s">
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="11" t="s">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
@@ -1242,8 +1242,8 @@
         <v>38</v>
       </c>
       <c r="B20" s="12"/>
-      <c r="C20" s="46" t="s">
-        <v>78</v>
+      <c r="C20" s="42" t="s">
+        <v>81</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
